--- a/Analisis/scripts administracion inventario/relacion.xlsx
+++ b/Analisis/scripts administracion inventario/relacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\comercializadora\Analisis\scripts administracion inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F8108C-5C87-4FAE-BF00-950BFFB5F401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522FFC5A-8C54-44A7-803E-BA7A70EFFA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E3F38112-73A5-4999-B512-5ED65FDBB7AD}"/>
   </bookViews>
@@ -59,15 +59,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,12 +87,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66F2341-FAF7-44A6-A291-25BE2A57CD82}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,954 +462,1389 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>681</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2694</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>682</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2695</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>684</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2712</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>685</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2709</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
+        <v>687</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3353</v>
+      </c>
+      <c r="C6" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>688</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3354</v>
+      </c>
+      <c r="C7" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>690</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="2">
         <v>2710</v>
       </c>
-      <c r="C6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C8" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>691</v>
       </c>
-      <c r="B7">
+      <c r="B9" s="2">
         <v>2711</v>
       </c>
-      <c r="C7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C9" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>692</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3355</v>
+      </c>
+      <c r="C10" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>694</v>
       </c>
-      <c r="B8">
+      <c r="B11" s="2">
         <v>2713</v>
       </c>
-      <c r="C8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C11" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>696</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2714</v>
+      </c>
+      <c r="C12" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>697</v>
       </c>
-      <c r="B9">
+      <c r="B13" s="2">
         <v>2702</v>
       </c>
-      <c r="C9">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>697</v>
-      </c>
-      <c r="B10">
-        <v>2701</v>
-      </c>
-      <c r="C10">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C13" s="1">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>700</v>
       </c>
-      <c r="B11">
+      <c r="B14" s="2">
         <v>2696</v>
       </c>
-      <c r="C11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C14" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3359</v>
+      </c>
+      <c r="B15" s="2">
+        <v>703</v>
+      </c>
+      <c r="C15" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>704</v>
       </c>
-      <c r="B12">
+      <c r="B16" s="4">
         <v>2715</v>
       </c>
-      <c r="C12">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C16" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>705</v>
       </c>
-      <c r="B13">
+      <c r="B17" s="2">
         <v>2716</v>
       </c>
-      <c r="C13">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C17" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>706</v>
       </c>
-      <c r="B14">
+      <c r="B18" s="4">
         <v>2717</v>
       </c>
-      <c r="C14">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C18" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>707</v>
       </c>
-      <c r="B15">
+      <c r="B19" s="2">
         <v>2718</v>
       </c>
-      <c r="C15">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C19" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>708</v>
       </c>
-      <c r="B16">
+      <c r="B20" s="2">
         <v>2719</v>
       </c>
-      <c r="C16">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C20" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>709</v>
       </c>
-      <c r="B17">
+      <c r="B21" s="2">
         <v>709</v>
       </c>
-      <c r="C17">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C21" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>710</v>
       </c>
-      <c r="B18">
+      <c r="B22" s="2">
         <v>2721</v>
       </c>
-      <c r="C18">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C22" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>711</v>
       </c>
-      <c r="B19">
+      <c r="B23" s="2">
         <v>2722</v>
       </c>
-      <c r="C19">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C23" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>712</v>
       </c>
-      <c r="B20">
+      <c r="B24" s="2">
         <v>2723</v>
       </c>
-      <c r="C20">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C24" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>713</v>
       </c>
-      <c r="B21">
+      <c r="B25" s="2">
         <v>2724</v>
       </c>
-      <c r="C21">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C25" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>714</v>
       </c>
-      <c r="B22">
+      <c r="B26" s="2">
         <v>2725</v>
       </c>
-      <c r="C22">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C26" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>715</v>
       </c>
-      <c r="B23">
+      <c r="B27" s="2">
         <v>2726</v>
       </c>
-      <c r="C23">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C27" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>716</v>
       </c>
-      <c r="B24">
+      <c r="B28" s="2">
         <v>2727</v>
       </c>
-      <c r="C24">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C28" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>717</v>
       </c>
-      <c r="B25">
+      <c r="B29" s="2">
         <v>2728</v>
       </c>
-      <c r="C25">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="C29" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>718</v>
       </c>
-      <c r="B26">
+      <c r="B30" s="2">
         <v>2729</v>
       </c>
-      <c r="C26">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="C30" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>719</v>
       </c>
-      <c r="B27">
+      <c r="B31" s="2">
         <v>2730</v>
       </c>
-      <c r="C27">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="C31" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>721</v>
       </c>
-      <c r="B28">
+      <c r="B32" s="2">
         <v>2731</v>
       </c>
-      <c r="C28">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="C32" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>722</v>
       </c>
-      <c r="B29">
+      <c r="B33" s="2">
         <v>2732</v>
       </c>
-      <c r="C29">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="C33" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>725</v>
       </c>
-      <c r="B30">
+      <c r="B34" s="2">
         <v>2698</v>
       </c>
-      <c r="C30">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="C34" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>726</v>
       </c>
-      <c r="B31">
+      <c r="B35" s="2">
         <v>2704</v>
       </c>
-      <c r="C31">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="C35" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>727</v>
       </c>
-      <c r="B32">
+      <c r="B36" s="4">
         <v>728</v>
       </c>
-      <c r="C32">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="C36" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>733</v>
       </c>
-      <c r="B33">
+      <c r="B37" s="2">
         <v>2708</v>
       </c>
-      <c r="C33">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="C37" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>734</v>
       </c>
-      <c r="B34">
+      <c r="B38" s="2">
         <v>2651</v>
       </c>
-      <c r="C34">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="C38" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>735</v>
       </c>
-      <c r="B35">
+      <c r="B39" s="2">
         <v>2652</v>
       </c>
-      <c r="C35">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="C39" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>736</v>
       </c>
-      <c r="B36">
+      <c r="B40" s="2">
         <v>2690</v>
       </c>
-      <c r="C36">
+      <c r="C40" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>736</v>
       </c>
-      <c r="B37">
+      <c r="B41" s="2">
         <v>2692</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="C41" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>737</v>
       </c>
-      <c r="B38">
+      <c r="B42" s="2">
         <v>2691</v>
       </c>
-      <c r="C38">
+      <c r="C42" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>737</v>
       </c>
-      <c r="B39">
+      <c r="B43" s="2">
         <v>2693</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="C43" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>3360</v>
+      </c>
+      <c r="B44" s="2">
+        <v>738</v>
+      </c>
+      <c r="C44" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>739</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3352</v>
+      </c>
+      <c r="C45" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>743</v>
       </c>
-      <c r="B40">
+      <c r="B46" s="2">
         <v>2697</v>
       </c>
-      <c r="C40">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="C46" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>748</v>
       </c>
-      <c r="B41">
+      <c r="B47" s="2">
         <v>2640</v>
       </c>
-      <c r="C41">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="C47" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>751</v>
       </c>
-      <c r="B42">
+      <c r="B48" s="2">
         <v>2644</v>
       </c>
-      <c r="C42">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="C48" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>759</v>
       </c>
-      <c r="B43">
+      <c r="B49" s="2">
         <v>2649</v>
       </c>
-      <c r="C43">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="C49" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>761</v>
       </c>
-      <c r="B44">
+      <c r="B50" s="2">
         <v>2646</v>
       </c>
-      <c r="C44">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="C50" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>762</v>
       </c>
-      <c r="B45">
+      <c r="B51" s="2">
         <v>2641</v>
       </c>
-      <c r="C45">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="C51" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>763</v>
       </c>
-      <c r="B46">
+      <c r="B52" s="2">
         <v>2647</v>
       </c>
-      <c r="C46">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="C52" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>766</v>
       </c>
-      <c r="B47">
+      <c r="B53" s="2">
         <v>2645</v>
       </c>
-      <c r="C47">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="C53" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>767</v>
       </c>
-      <c r="B48">
+      <c r="B54" s="2">
         <v>2648</v>
       </c>
-      <c r="C48">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="C54" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>770</v>
       </c>
-      <c r="B49">
+      <c r="B55" s="2">
         <v>2642</v>
       </c>
-      <c r="C49">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="C55" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>771</v>
       </c>
-      <c r="B50">
+      <c r="B56" s="2">
         <v>2643</v>
       </c>
-      <c r="C50">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="C56" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>750</v>
       </c>
-      <c r="B51">
+      <c r="B57" s="2">
         <v>2650</v>
       </c>
-      <c r="C51">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="C57" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>3357</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2699</v>
+      </c>
+      <c r="C58" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>3357</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2700</v>
+      </c>
+      <c r="C59" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>783</v>
       </c>
-      <c r="B52">
+      <c r="B60" s="2">
         <v>2889</v>
       </c>
-      <c r="C52">
+      <c r="C60" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>785</v>
+      </c>
+      <c r="B61" s="6">
+        <v>3358</v>
+      </c>
+      <c r="C61" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>798</v>
       </c>
-      <c r="B53">
+      <c r="B62" s="2">
         <v>2685</v>
       </c>
-      <c r="C53">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="C62" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>798</v>
       </c>
-      <c r="B54">
+      <c r="B63" s="2">
         <v>2659</v>
       </c>
-      <c r="C54">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="C63" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>787</v>
       </c>
-      <c r="B55">
+      <c r="B64" s="2">
         <v>2667</v>
       </c>
-      <c r="C55">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="C64" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>788</v>
       </c>
-      <c r="B56">
+      <c r="B65" s="2">
         <v>2664</v>
       </c>
-      <c r="C56">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="C65" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>807</v>
       </c>
-      <c r="B57">
+      <c r="B66" s="2">
         <v>2687</v>
       </c>
-      <c r="C57">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="C66" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>808</v>
       </c>
-      <c r="B58">
+      <c r="B67" s="2">
         <v>2682</v>
       </c>
-      <c r="C58">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="C67" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>809</v>
       </c>
-      <c r="B59">
+      <c r="B68" s="2">
         <v>2686</v>
       </c>
-      <c r="C59">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="C68" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>810</v>
       </c>
-      <c r="B60">
+      <c r="B69" s="2">
         <v>2679</v>
       </c>
-      <c r="C60">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="C69" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>811</v>
       </c>
-      <c r="B61">
+      <c r="B70" s="2">
         <v>2678</v>
       </c>
-      <c r="C61">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="C70" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>789</v>
       </c>
-      <c r="B62">
+      <c r="B71" s="2">
         <v>2681</v>
       </c>
-      <c r="C62">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="C71" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>791</v>
       </c>
-      <c r="B63">
+      <c r="B72" s="2">
         <v>2661</v>
       </c>
-      <c r="C63">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="C72" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>792</v>
       </c>
-      <c r="B64">
+      <c r="B73" s="2">
         <v>2672</v>
       </c>
-      <c r="C64">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="C73" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>794</v>
       </c>
-      <c r="B65">
+      <c r="B74" s="2">
         <v>2670</v>
       </c>
-      <c r="C65">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="C74" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>799</v>
       </c>
-      <c r="B66">
+      <c r="B75" s="2">
         <v>2671</v>
       </c>
-      <c r="C66">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="C75" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>800</v>
       </c>
-      <c r="B67">
+      <c r="B76" s="2">
         <v>2674</v>
       </c>
-      <c r="C67">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="C76" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>801</v>
       </c>
-      <c r="B68">
+      <c r="B77" s="2">
         <v>2668</v>
       </c>
-      <c r="C68">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="C77" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>802</v>
       </c>
-      <c r="B69">
+      <c r="B78" s="2">
         <v>2680</v>
       </c>
-      <c r="C69">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="C78" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>803</v>
       </c>
-      <c r="B70">
+      <c r="B79" s="2">
         <v>2675</v>
       </c>
-      <c r="C70">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="C79" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>804</v>
       </c>
-      <c r="B71">
+      <c r="B80" s="2">
         <v>2677</v>
       </c>
-      <c r="C71">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="C80" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>805</v>
       </c>
-      <c r="B72">
+      <c r="B81" s="2">
         <v>2676</v>
       </c>
-      <c r="C72">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="C81" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>806</v>
       </c>
-      <c r="B73">
+      <c r="B82" s="2">
         <v>2683</v>
       </c>
-      <c r="C73">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="C82" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>796</v>
       </c>
-      <c r="B74">
+      <c r="B83" s="2">
         <v>2658</v>
       </c>
-      <c r="C74">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="C83" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>797</v>
       </c>
-      <c r="B75">
+      <c r="B84" s="2">
         <v>2669</v>
       </c>
-      <c r="C75">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="C84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>812</v>
       </c>
-      <c r="B76">
+      <c r="B85" s="2">
         <v>2688</v>
       </c>
-      <c r="C76">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="C85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>813</v>
       </c>
-      <c r="B77">
+      <c r="B86" s="2">
         <v>2673</v>
       </c>
-      <c r="C77">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="C86" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>790</v>
       </c>
-      <c r="B78">
+      <c r="B87" s="2">
         <v>2663</v>
       </c>
-      <c r="C78">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="C87" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>815</v>
       </c>
-      <c r="B79">
+      <c r="B88" s="2">
         <v>2684</v>
       </c>
-      <c r="C79">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="C88" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>816</v>
       </c>
-      <c r="B80">
+      <c r="B89" s="2">
         <v>2660</v>
       </c>
-      <c r="C80">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="C89" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>817</v>
       </c>
-      <c r="B81">
+      <c r="B90" s="2">
         <v>2666</v>
       </c>
-      <c r="C81">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="C90" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>819</v>
       </c>
-      <c r="B82">
+      <c r="B91" s="2">
         <v>2662</v>
       </c>
-      <c r="C82">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="C91" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>820</v>
       </c>
-      <c r="B83">
+      <c r="B92" s="2">
         <v>2665</v>
       </c>
-      <c r="C83">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="C92" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>821</v>
       </c>
-      <c r="B84">
+      <c r="B93" s="2">
         <v>2653</v>
       </c>
-      <c r="C84">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="C93" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>822</v>
       </c>
-      <c r="B85">
+      <c r="B94" s="2">
         <v>2654</v>
       </c>
-      <c r="C85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="C94" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>823</v>
       </c>
-      <c r="B86">
+      <c r="B95" s="2">
         <v>2655</v>
       </c>
-      <c r="C86">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="C95" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>825</v>
       </c>
-      <c r="B87">
+      <c r="B96" s="2">
         <v>2657</v>
       </c>
-      <c r="C87">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="C96" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>824</v>
       </c>
-      <c r="B88">
+      <c r="B97" s="2">
         <v>2656</v>
       </c>
-      <c r="C88">
-        <v>84</v>
+      <c r="C97" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>860</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2735</v>
+      </c>
+      <c r="C98" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>861</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2736</v>
+      </c>
+      <c r="C99" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>862</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2737</v>
+      </c>
+      <c r="C100" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>863</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2738</v>
+      </c>
+      <c r="C101" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>864</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2739</v>
+      </c>
+      <c r="C102" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>865</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2740</v>
+      </c>
+      <c r="C103" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>866</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2741</v>
+      </c>
+      <c r="C104" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>867</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2742</v>
+      </c>
+      <c r="C105" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>868</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2743</v>
+      </c>
+      <c r="C106" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>870</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2744</v>
+      </c>
+      <c r="C107" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>871</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2745</v>
+      </c>
+      <c r="C108" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>872</v>
+      </c>
+      <c r="B109" s="3">
+        <v>2746</v>
+      </c>
+      <c r="C109" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>874</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2747</v>
+      </c>
+      <c r="C110" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>875</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2748</v>
+      </c>
+      <c r="C111" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>877</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2749</v>
+      </c>
+      <c r="C112" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>878</v>
+      </c>
+      <c r="B113" s="3">
+        <v>2750</v>
+      </c>
+      <c r="C113" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>879</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2751</v>
+      </c>
+      <c r="C114" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>880</v>
+      </c>
+      <c r="B115" s="3">
+        <v>2752</v>
+      </c>
+      <c r="C115" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>881</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2752</v>
+      </c>
+      <c r="C116" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>882</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2754</v>
+      </c>
+      <c r="C117" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="7">
+        <v>883</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2755</v>
+      </c>
+      <c r="C118" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>887</v>
+      </c>
+      <c r="B119" s="3">
+        <v>2756</v>
+      </c>
+      <c r="C119" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>889</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2757</v>
+      </c>
+      <c r="C120" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>890</v>
+      </c>
+      <c r="B121" s="3">
+        <v>2758</v>
+      </c>
+      <c r="C121" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>891</v>
+      </c>
+      <c r="B122" s="3">
+        <v>2822</v>
+      </c>
+      <c r="C122" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>894</v>
+      </c>
+      <c r="B123" s="3">
+        <v>2759</v>
+      </c>
+      <c r="C123" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>896</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2761</v>
+      </c>
+      <c r="C124" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>895</v>
+      </c>
+      <c r="B125" s="3">
+        <v>2760</v>
+      </c>
+      <c r="C125" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>898</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2821</v>
+      </c>
+      <c r="C126" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>899</v>
+      </c>
+      <c r="B127" s="3">
+        <v>2823</v>
+      </c>
+      <c r="C127" s="1">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
